--- a/biology/Médecine/Muscle_droit_fémoral/Muscle_droit_fémoral.xlsx
+++ b/biology/Médecine/Muscle_droit_fémoral/Muscle_droit_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_droit_f%C3%A9moral</t>
+          <t>Muscle_droit_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit fémoral (ou muscle droit antérieur de la cuisse) est un muscle du membre inférieur situé dans la loge fémorale antérieure et constituant le chef le plus superficiel du muscle quadriceps fémoral.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_droit_f%C3%A9moral</t>
+          <t>Muscle_droit_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit fémoral est un muscle plat et fusiforme qui relie l'os coxal et le fémur au tibia.
-Il est bi-articulaire pouvant mobiliser l'articulation coxale et l'articulation du genou[1].
+Il est bi-articulaire pouvant mobiliser l'articulation coxale et l'articulation du genou.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_droit_f%C3%A9moral</t>
+          <t>Muscle_droit_fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le muscle droit fémoral prend naissance par trois chefs :
 le chef direct qui se fixe par un tendon sur l'épine iliaque antérieure et inférieure,
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_droit_f%C3%A9moral</t>
+          <t>Muscle_droit_fémoral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon réfléchi et le tendon récurrent rejoignent presque horizontalement le tendon direct descendant pour s'attacher au corps musculaire. Celui descend superficiellement aux autres chefs du quadriceps pour se terminer par un tendon qui rejoint la patella.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_droit_f%C3%A9moral</t>
+          <t>Muscle_droit_fémoral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fibres profondes du tendon terminal du muscle droit fémoral s’insère sur le bord antérieur de la base de la patella  et ses fibres superficielles passe au-dessus de la patella en constituant une partie du ligament de la patella qui se termine sur la tubérosité du tibia.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_droit_f%C3%A9moral</t>
+          <t>Muscle_droit_fémoral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit fémoral est innervé par le rameau du muscle droit fémoral du nerf fémoral.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_droit_f%C3%A9moral</t>
+          <t>Muscle_droit_fémoral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par l'artère du droit fémoral, branche de l'artère du quadriceps, elle-même branche de l'artère fémorale.
 </t>
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_droit_f%C3%A9moral</t>
+          <t>Muscle_droit_fémoral</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,7 +724,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit fémoral permet la flexion de la cuisse sur le bassin par les chefs réfléchi et récurrent et l'extension de la jambe sur la cuisse par le chef direct
 Il permet également d'effectuer une antéversion du bassin si le tibia est fixe.
